--- a/gengxiang/data/sz300120.xlsx
+++ b/gengxiang/data/sz300120.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,29 +461,58 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E2" t="n">
+        <v>53281</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3634</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>经纬辉开</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>sz300120</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>6.79</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E3" t="n">
         <v>43302</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F3" t="n">
         <v>2956</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G3" t="n">
         <v>1.13</v>
       </c>
     </row>

--- a/gengxiang/data/sz300120.xlsx
+++ b/gengxiang/data/sz300120.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,44 +475,73 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.71</v>
+        <v>6.7</v>
       </c>
       <c r="E2" t="n">
-        <v>53281</v>
+        <v>49231</v>
       </c>
       <c r="F2" t="n">
-        <v>3634</v>
+        <v>3302</v>
       </c>
       <c r="G2" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E3" t="n">
+        <v>53281</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3634</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>经纬辉开</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>sz300120</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>6.79</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E4" t="n">
         <v>43302</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F4" t="n">
         <v>2956</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
         <v>1.13</v>
       </c>
     </row>

--- a/gengxiang/data/sz300120.xlsx
+++ b/gengxiang/data/sz300120.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.7</v>
+        <v>6.86</v>
       </c>
       <c r="E2" t="n">
-        <v>49231</v>
+        <v>45505</v>
       </c>
       <c r="F2" t="n">
-        <v>3302</v>
+        <v>3140</v>
       </c>
       <c r="G2" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,44 +504,102 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.71</v>
+        <v>6.89</v>
       </c>
       <c r="E3" t="n">
-        <v>53281</v>
+        <v>47164</v>
       </c>
       <c r="F3" t="n">
-        <v>3634</v>
+        <v>3221</v>
       </c>
       <c r="G3" t="n">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2022-10-25</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>49231</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3302</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E5" t="n">
+        <v>53281</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3634</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>经纬辉开</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>sz300120</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D6" t="n">
         <v>6.79</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E6" t="n">
         <v>43302</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F6" t="n">
         <v>2956</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G6" t="n">
         <v>1.13</v>
       </c>
     </row>

--- a/gengxiang/data/sz300120.xlsx
+++ b/gengxiang/data/sz300120.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.86</v>
+        <v>6.49</v>
       </c>
       <c r="E2" t="n">
-        <v>45505</v>
+        <v>77120</v>
       </c>
       <c r="F2" t="n">
-        <v>3140</v>
+        <v>5120</v>
       </c>
       <c r="G2" t="n">
-        <v>1.18</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.89</v>
+        <v>6.86</v>
       </c>
       <c r="E3" t="n">
-        <v>47164</v>
+        <v>45505</v>
       </c>
       <c r="F3" t="n">
-        <v>3221</v>
+        <v>3140</v>
       </c>
       <c r="G3" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.7</v>
+        <v>6.89</v>
       </c>
       <c r="E4" t="n">
-        <v>49231</v>
+        <v>47164</v>
       </c>
       <c r="F4" t="n">
-        <v>3302</v>
+        <v>3221</v>
       </c>
       <c r="G4" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,44 +562,73 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.71</v>
+        <v>6.7</v>
       </c>
       <c r="E5" t="n">
-        <v>53281</v>
+        <v>49231</v>
       </c>
       <c r="F5" t="n">
-        <v>3634</v>
+        <v>3302</v>
       </c>
       <c r="G5" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E6" t="n">
+        <v>53281</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3634</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>经纬辉开</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>sz300120</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.79</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E7" t="n">
         <v>43302</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F7" t="n">
         <v>2956</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>1.13</v>
       </c>
     </row>

--- a/gengxiang/data/sz300120.xlsx
+++ b/gengxiang/data/sz300120.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.49</v>
+        <v>6.98</v>
       </c>
       <c r="E2" t="n">
-        <v>77120</v>
+        <v>95577</v>
       </c>
       <c r="F2" t="n">
-        <v>5120</v>
+        <v>6628</v>
       </c>
       <c r="G2" t="n">
-        <v>2.01</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.86</v>
+        <v>6.91</v>
       </c>
       <c r="E3" t="n">
-        <v>45505</v>
+        <v>70966</v>
       </c>
       <c r="F3" t="n">
-        <v>3140</v>
+        <v>4858</v>
       </c>
       <c r="G3" t="n">
-        <v>1.18</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.89</v>
+        <v>6.81</v>
       </c>
       <c r="E4" t="n">
-        <v>47164</v>
+        <v>53674</v>
       </c>
       <c r="F4" t="n">
-        <v>3221</v>
+        <v>3672</v>
       </c>
       <c r="G4" t="n">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.7</v>
+        <v>6.84</v>
       </c>
       <c r="E5" t="n">
-        <v>49231</v>
+        <v>56601</v>
       </c>
       <c r="F5" t="n">
-        <v>3302</v>
+        <v>3837</v>
       </c>
       <c r="G5" t="n">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,44 +591,189 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.71</v>
+        <v>6.64</v>
       </c>
       <c r="E6" t="n">
-        <v>53281</v>
+        <v>63254</v>
       </c>
       <c r="F6" t="n">
-        <v>3634</v>
+        <v>4201</v>
       </c>
       <c r="G6" t="n">
-        <v>1.39</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2022-10-28</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="E7" t="n">
+        <v>77120</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5120</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2022-10-27</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="E8" t="n">
+        <v>45505</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3140</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="E9" t="n">
+        <v>47164</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3221</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2022-10-25</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>49231</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3302</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E11" t="n">
+        <v>53281</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3634</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>经纬辉开</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>sz300120</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>6.79</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E12" t="n">
         <v>43302</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F12" t="n">
         <v>2956</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G12" t="n">
         <v>1.13</v>
       </c>
     </row>

--- a/gengxiang/data/sz300120.xlsx
+++ b/gengxiang/data/sz300120.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.98</v>
+        <v>6.96</v>
       </c>
       <c r="E2" t="n">
-        <v>95577</v>
+        <v>64744</v>
       </c>
       <c r="F2" t="n">
-        <v>6628</v>
+        <v>4491</v>
       </c>
       <c r="G2" t="n">
-        <v>2.49</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.91</v>
+        <v>6.98</v>
       </c>
       <c r="E3" t="n">
-        <v>70966</v>
+        <v>95577</v>
       </c>
       <c r="F3" t="n">
-        <v>4858</v>
+        <v>6628</v>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.81</v>
+        <v>6.91</v>
       </c>
       <c r="E4" t="n">
-        <v>53674</v>
+        <v>70966</v>
       </c>
       <c r="F4" t="n">
-        <v>3672</v>
+        <v>4858</v>
       </c>
       <c r="G4" t="n">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.84</v>
+        <v>6.81</v>
       </c>
       <c r="E5" t="n">
-        <v>56601</v>
+        <v>53674</v>
       </c>
       <c r="F5" t="n">
-        <v>3837</v>
+        <v>3672</v>
       </c>
       <c r="G5" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.64</v>
+        <v>6.84</v>
       </c>
       <c r="E6" t="n">
-        <v>63254</v>
+        <v>56601</v>
       </c>
       <c r="F6" t="n">
-        <v>4201</v>
+        <v>3837</v>
       </c>
       <c r="G6" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.49</v>
+        <v>6.64</v>
       </c>
       <c r="E7" t="n">
-        <v>77120</v>
+        <v>63254</v>
       </c>
       <c r="F7" t="n">
-        <v>5120</v>
+        <v>4201</v>
       </c>
       <c r="G7" t="n">
-        <v>2.01</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6.86</v>
+        <v>6.49</v>
       </c>
       <c r="E8" t="n">
-        <v>45505</v>
+        <v>77120</v>
       </c>
       <c r="F8" t="n">
-        <v>3140</v>
+        <v>5120</v>
       </c>
       <c r="G8" t="n">
-        <v>1.18</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6.89</v>
+        <v>6.86</v>
       </c>
       <c r="E9" t="n">
-        <v>47164</v>
+        <v>45505</v>
       </c>
       <c r="F9" t="n">
-        <v>3221</v>
+        <v>3140</v>
       </c>
       <c r="G9" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6.7</v>
+        <v>6.89</v>
       </c>
       <c r="E10" t="n">
-        <v>49231</v>
+        <v>47164</v>
       </c>
       <c r="F10" t="n">
-        <v>3302</v>
+        <v>3221</v>
       </c>
       <c r="G10" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,44 +736,73 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6.71</v>
+        <v>6.7</v>
       </c>
       <c r="E11" t="n">
-        <v>53281</v>
+        <v>49231</v>
       </c>
       <c r="F11" t="n">
-        <v>3634</v>
+        <v>3302</v>
       </c>
       <c r="G11" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E12" t="n">
+        <v>53281</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3634</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>经纬辉开</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>sz300120</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>6.79</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E13" t="n">
         <v>43302</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F13" t="n">
         <v>2956</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>1.13</v>
       </c>
     </row>

--- a/gengxiang/data/sz300120.xlsx
+++ b/gengxiang/data/sz300120.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.96</v>
+        <v>6.9</v>
       </c>
       <c r="E2" t="n">
-        <v>64744</v>
+        <v>47436</v>
       </c>
       <c r="F2" t="n">
-        <v>4491</v>
+        <v>3259</v>
       </c>
       <c r="G2" t="n">
-        <v>1.68</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.98</v>
+        <v>6.96</v>
       </c>
       <c r="E3" t="n">
-        <v>95577</v>
+        <v>64744</v>
       </c>
       <c r="F3" t="n">
-        <v>6628</v>
+        <v>4491</v>
       </c>
       <c r="G3" t="n">
-        <v>2.49</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.91</v>
+        <v>6.98</v>
       </c>
       <c r="E4" t="n">
-        <v>70966</v>
+        <v>95577</v>
       </c>
       <c r="F4" t="n">
-        <v>4858</v>
+        <v>6628</v>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.81</v>
+        <v>6.91</v>
       </c>
       <c r="E5" t="n">
-        <v>53674</v>
+        <v>70966</v>
       </c>
       <c r="F5" t="n">
-        <v>3672</v>
+        <v>4858</v>
       </c>
       <c r="G5" t="n">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.84</v>
+        <v>6.81</v>
       </c>
       <c r="E6" t="n">
-        <v>56601</v>
+        <v>53674</v>
       </c>
       <c r="F6" t="n">
-        <v>3837</v>
+        <v>3672</v>
       </c>
       <c r="G6" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.64</v>
+        <v>6.84</v>
       </c>
       <c r="E7" t="n">
-        <v>63254</v>
+        <v>56601</v>
       </c>
       <c r="F7" t="n">
-        <v>4201</v>
+        <v>3837</v>
       </c>
       <c r="G7" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6.49</v>
+        <v>6.64</v>
       </c>
       <c r="E8" t="n">
-        <v>77120</v>
+        <v>63254</v>
       </c>
       <c r="F8" t="n">
-        <v>5120</v>
+        <v>4201</v>
       </c>
       <c r="G8" t="n">
-        <v>2.01</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6.86</v>
+        <v>6.49</v>
       </c>
       <c r="E9" t="n">
-        <v>45505</v>
+        <v>77120</v>
       </c>
       <c r="F9" t="n">
-        <v>3140</v>
+        <v>5120</v>
       </c>
       <c r="G9" t="n">
-        <v>1.18</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6.89</v>
+        <v>6.86</v>
       </c>
       <c r="E10" t="n">
-        <v>47164</v>
+        <v>45505</v>
       </c>
       <c r="F10" t="n">
-        <v>3221</v>
+        <v>3140</v>
       </c>
       <c r="G10" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6.7</v>
+        <v>6.89</v>
       </c>
       <c r="E11" t="n">
-        <v>49231</v>
+        <v>47164</v>
       </c>
       <c r="F11" t="n">
-        <v>3302</v>
+        <v>3221</v>
       </c>
       <c r="G11" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,44 +765,73 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6.71</v>
+        <v>6.7</v>
       </c>
       <c r="E12" t="n">
-        <v>53281</v>
+        <v>49231</v>
       </c>
       <c r="F12" t="n">
-        <v>3634</v>
+        <v>3302</v>
       </c>
       <c r="G12" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E13" t="n">
+        <v>53281</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3634</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>经纬辉开</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>sz300120</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>6.79</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E14" t="n">
         <v>43302</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F14" t="n">
         <v>2956</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G14" t="n">
         <v>1.13</v>
       </c>
     </row>

--- a/gengxiang/data/sz300120.xlsx
+++ b/gengxiang/data/sz300120.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.9</v>
+        <v>6.89</v>
       </c>
       <c r="E2" t="n">
-        <v>47436</v>
+        <v>44886</v>
       </c>
       <c r="F2" t="n">
-        <v>3259</v>
+        <v>3094</v>
       </c>
       <c r="G2" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.96</v>
+        <v>6.9</v>
       </c>
       <c r="E3" t="n">
-        <v>64744</v>
+        <v>47436</v>
       </c>
       <c r="F3" t="n">
-        <v>4491</v>
+        <v>3259</v>
       </c>
       <c r="G3" t="n">
-        <v>1.68</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.98</v>
+        <v>6.96</v>
       </c>
       <c r="E4" t="n">
-        <v>95577</v>
+        <v>64744</v>
       </c>
       <c r="F4" t="n">
-        <v>6628</v>
+        <v>4491</v>
       </c>
       <c r="G4" t="n">
-        <v>2.49</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.91</v>
+        <v>6.98</v>
       </c>
       <c r="E5" t="n">
-        <v>70966</v>
+        <v>95577</v>
       </c>
       <c r="F5" t="n">
-        <v>4858</v>
+        <v>6628</v>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.81</v>
+        <v>6.91</v>
       </c>
       <c r="E6" t="n">
-        <v>53674</v>
+        <v>70966</v>
       </c>
       <c r="F6" t="n">
-        <v>3672</v>
+        <v>4858</v>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.84</v>
+        <v>6.81</v>
       </c>
       <c r="E7" t="n">
-        <v>56601</v>
+        <v>53674</v>
       </c>
       <c r="F7" t="n">
-        <v>3837</v>
+        <v>3672</v>
       </c>
       <c r="G7" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6.64</v>
+        <v>6.84</v>
       </c>
       <c r="E8" t="n">
-        <v>63254</v>
+        <v>56601</v>
       </c>
       <c r="F8" t="n">
-        <v>4201</v>
+        <v>3837</v>
       </c>
       <c r="G8" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6.49</v>
+        <v>6.64</v>
       </c>
       <c r="E9" t="n">
-        <v>77120</v>
+        <v>63254</v>
       </c>
       <c r="F9" t="n">
-        <v>5120</v>
+        <v>4201</v>
       </c>
       <c r="G9" t="n">
-        <v>2.01</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6.86</v>
+        <v>6.49</v>
       </c>
       <c r="E10" t="n">
-        <v>45505</v>
+        <v>77120</v>
       </c>
       <c r="F10" t="n">
-        <v>3140</v>
+        <v>5120</v>
       </c>
       <c r="G10" t="n">
-        <v>1.18</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6.89</v>
+        <v>6.86</v>
       </c>
       <c r="E11" t="n">
-        <v>47164</v>
+        <v>45505</v>
       </c>
       <c r="F11" t="n">
-        <v>3221</v>
+        <v>3140</v>
       </c>
       <c r="G11" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6.7</v>
+        <v>6.89</v>
       </c>
       <c r="E12" t="n">
-        <v>49231</v>
+        <v>47164</v>
       </c>
       <c r="F12" t="n">
-        <v>3302</v>
+        <v>3221</v>
       </c>
       <c r="G12" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,44 +794,73 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6.71</v>
+        <v>6.7</v>
       </c>
       <c r="E13" t="n">
-        <v>53281</v>
+        <v>49231</v>
       </c>
       <c r="F13" t="n">
-        <v>3634</v>
+        <v>3302</v>
       </c>
       <c r="G13" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E14" t="n">
+        <v>53281</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3634</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>经纬辉开</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>sz300120</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>6.79</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E15" t="n">
         <v>43302</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F15" t="n">
         <v>2956</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>1.13</v>
       </c>
     </row>

--- a/gengxiang/data/sz300120.xlsx
+++ b/gengxiang/data/sz300120.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.89</v>
+        <v>6.82</v>
       </c>
       <c r="E2" t="n">
-        <v>44886</v>
+        <v>82132</v>
       </c>
       <c r="F2" t="n">
-        <v>3094</v>
+        <v>5645</v>
       </c>
       <c r="G2" t="n">
-        <v>1.17</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.9</v>
+        <v>6.81</v>
       </c>
       <c r="E3" t="n">
-        <v>47436</v>
+        <v>54539</v>
       </c>
       <c r="F3" t="n">
-        <v>3259</v>
+        <v>3739</v>
       </c>
       <c r="G3" t="n">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.96</v>
+        <v>6.89</v>
       </c>
       <c r="E4" t="n">
-        <v>64744</v>
+        <v>44886</v>
       </c>
       <c r="F4" t="n">
-        <v>4491</v>
+        <v>3094</v>
       </c>
       <c r="G4" t="n">
-        <v>1.68</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.98</v>
+        <v>6.9</v>
       </c>
       <c r="E5" t="n">
-        <v>95577</v>
+        <v>47436</v>
       </c>
       <c r="F5" t="n">
-        <v>6628</v>
+        <v>3259</v>
       </c>
       <c r="G5" t="n">
-        <v>2.49</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.91</v>
+        <v>6.96</v>
       </c>
       <c r="E6" t="n">
-        <v>70966</v>
+        <v>64744</v>
       </c>
       <c r="F6" t="n">
-        <v>4858</v>
+        <v>4491</v>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.81</v>
+        <v>6.98</v>
       </c>
       <c r="E7" t="n">
-        <v>53674</v>
+        <v>95577</v>
       </c>
       <c r="F7" t="n">
-        <v>3672</v>
+        <v>6628</v>
       </c>
       <c r="G7" t="n">
-        <v>1.4</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6.84</v>
+        <v>6.91</v>
       </c>
       <c r="E8" t="n">
-        <v>56601</v>
+        <v>70966</v>
       </c>
       <c r="F8" t="n">
-        <v>3837</v>
+        <v>4858</v>
       </c>
       <c r="G8" t="n">
-        <v>1.47</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6.64</v>
+        <v>6.81</v>
       </c>
       <c r="E9" t="n">
-        <v>63254</v>
+        <v>53674</v>
       </c>
       <c r="F9" t="n">
-        <v>4201</v>
+        <v>3672</v>
       </c>
       <c r="G9" t="n">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6.49</v>
+        <v>6.84</v>
       </c>
       <c r="E10" t="n">
-        <v>77120</v>
+        <v>56601</v>
       </c>
       <c r="F10" t="n">
-        <v>5120</v>
+        <v>3837</v>
       </c>
       <c r="G10" t="n">
-        <v>2.01</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6.86</v>
+        <v>6.64</v>
       </c>
       <c r="E11" t="n">
-        <v>45505</v>
+        <v>63254</v>
       </c>
       <c r="F11" t="n">
-        <v>3140</v>
+        <v>4201</v>
       </c>
       <c r="G11" t="n">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6.89</v>
+        <v>6.49</v>
       </c>
       <c r="E12" t="n">
-        <v>47164</v>
+        <v>77120</v>
       </c>
       <c r="F12" t="n">
-        <v>3221</v>
+        <v>5120</v>
       </c>
       <c r="G12" t="n">
-        <v>1.23</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6.7</v>
+        <v>6.86</v>
       </c>
       <c r="E13" t="n">
-        <v>49231</v>
+        <v>45505</v>
       </c>
       <c r="F13" t="n">
-        <v>3302</v>
+        <v>3140</v>
       </c>
       <c r="G13" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,44 +823,102 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6.71</v>
+        <v>6.89</v>
       </c>
       <c r="E14" t="n">
-        <v>53281</v>
+        <v>47164</v>
       </c>
       <c r="F14" t="n">
-        <v>3634</v>
+        <v>3221</v>
       </c>
       <c r="G14" t="n">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>2022-10-25</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>49231</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3302</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E16" t="n">
+        <v>53281</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3634</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>经纬辉开</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>sz300120</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>6.79</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E17" t="n">
         <v>43302</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F17" t="n">
         <v>2956</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G17" t="n">
         <v>1.13</v>
       </c>
     </row>

--- a/gengxiang/data/sz300120.xlsx
+++ b/gengxiang/data/sz300120.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.89</v>
+        <v>7.07</v>
       </c>
       <c r="E2" t="n">
-        <v>44886</v>
+        <v>92568</v>
       </c>
       <c r="F2" t="n">
-        <v>3094</v>
+        <v>6460</v>
       </c>
       <c r="G2" t="n">
-        <v>1.17</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.9</v>
+        <v>6.84</v>
       </c>
       <c r="E3" t="n">
-        <v>47436</v>
+        <v>66316</v>
       </c>
       <c r="F3" t="n">
-        <v>3259</v>
+        <v>4557</v>
       </c>
       <c r="G3" t="n">
-        <v>1.23</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.96</v>
+        <v>6.82</v>
       </c>
       <c r="E4" t="n">
-        <v>64744</v>
+        <v>82132</v>
       </c>
       <c r="F4" t="n">
-        <v>4491</v>
+        <v>5645</v>
       </c>
       <c r="G4" t="n">
-        <v>1.68</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.98</v>
+        <v>6.81</v>
       </c>
       <c r="E5" t="n">
-        <v>95577</v>
+        <v>54539</v>
       </c>
       <c r="F5" t="n">
-        <v>6628</v>
+        <v>3739</v>
       </c>
       <c r="G5" t="n">
-        <v>2.49</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.91</v>
+        <v>6.89</v>
       </c>
       <c r="E6" t="n">
-        <v>70966</v>
+        <v>44886</v>
       </c>
       <c r="F6" t="n">
-        <v>4858</v>
+        <v>3094</v>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.81</v>
+        <v>6.9</v>
       </c>
       <c r="E7" t="n">
-        <v>53674</v>
+        <v>47436</v>
       </c>
       <c r="F7" t="n">
-        <v>3672</v>
+        <v>3259</v>
       </c>
       <c r="G7" t="n">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6.84</v>
+        <v>6.96</v>
       </c>
       <c r="E8" t="n">
-        <v>56601</v>
+        <v>64744</v>
       </c>
       <c r="F8" t="n">
-        <v>3837</v>
+        <v>4491</v>
       </c>
       <c r="G8" t="n">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6.64</v>
+        <v>6.98</v>
       </c>
       <c r="E9" t="n">
-        <v>63254</v>
+        <v>95577</v>
       </c>
       <c r="F9" t="n">
-        <v>4201</v>
+        <v>6628</v>
       </c>
       <c r="G9" t="n">
-        <v>1.64</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6.49</v>
+        <v>6.91</v>
       </c>
       <c r="E10" t="n">
-        <v>77120</v>
+        <v>70966</v>
       </c>
       <c r="F10" t="n">
-        <v>5120</v>
+        <v>4858</v>
       </c>
       <c r="G10" t="n">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6.86</v>
+        <v>6.81</v>
       </c>
       <c r="E11" t="n">
-        <v>45505</v>
+        <v>53674</v>
       </c>
       <c r="F11" t="n">
-        <v>3140</v>
+        <v>3672</v>
       </c>
       <c r="G11" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6.89</v>
+        <v>6.84</v>
       </c>
       <c r="E12" t="n">
-        <v>47164</v>
+        <v>56601</v>
       </c>
       <c r="F12" t="n">
-        <v>3221</v>
+        <v>3837</v>
       </c>
       <c r="G12" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6.7</v>
+        <v>6.64</v>
       </c>
       <c r="E13" t="n">
-        <v>49231</v>
+        <v>63254</v>
       </c>
       <c r="F13" t="n">
-        <v>3302</v>
+        <v>4201</v>
       </c>
       <c r="G13" t="n">
-        <v>1.28</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,44 +823,160 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6.71</v>
+        <v>6.49</v>
       </c>
       <c r="E14" t="n">
-        <v>53281</v>
+        <v>77120</v>
       </c>
       <c r="F14" t="n">
-        <v>3634</v>
+        <v>5120</v>
       </c>
       <c r="G14" t="n">
-        <v>1.39</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>2022-10-27</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="E15" t="n">
+        <v>45505</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3140</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2022-10-26</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="E16" t="n">
+        <v>47164</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3221</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2022-10-25</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>49231</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3302</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E18" t="n">
+        <v>53281</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3634</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>经纬辉开</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>sz300120</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>6.79</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E19" t="n">
         <v>43302</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F19" t="n">
         <v>2956</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G19" t="n">
         <v>1.13</v>
       </c>
     </row>

--- a/gengxiang/data/sz300120.xlsx
+++ b/gengxiang/data/sz300120.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7.07</v>
+        <v>7.05</v>
       </c>
       <c r="E2" t="n">
-        <v>92568</v>
+        <v>55764</v>
       </c>
       <c r="F2" t="n">
-        <v>6460</v>
+        <v>3930</v>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.84</v>
+        <v>7.07</v>
       </c>
       <c r="E3" t="n">
-        <v>66316</v>
+        <v>92568</v>
       </c>
       <c r="F3" t="n">
-        <v>4557</v>
+        <v>6460</v>
       </c>
       <c r="G3" t="n">
-        <v>1.61</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.82</v>
+        <v>6.84</v>
       </c>
       <c r="E4" t="n">
-        <v>82132</v>
+        <v>66316</v>
       </c>
       <c r="F4" t="n">
-        <v>5645</v>
+        <v>4557</v>
       </c>
       <c r="G4" t="n">
-        <v>2.14</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.81</v>
+        <v>6.82</v>
       </c>
       <c r="E5" t="n">
-        <v>54539</v>
+        <v>82132</v>
       </c>
       <c r="F5" t="n">
-        <v>3739</v>
+        <v>5645</v>
       </c>
       <c r="G5" t="n">
-        <v>1.42</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.89</v>
+        <v>6.81</v>
       </c>
       <c r="E6" t="n">
-        <v>44886</v>
+        <v>54539</v>
       </c>
       <c r="F6" t="n">
-        <v>3094</v>
+        <v>3739</v>
       </c>
       <c r="G6" t="n">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.9</v>
+        <v>6.89</v>
       </c>
       <c r="E7" t="n">
-        <v>47436</v>
+        <v>44886</v>
       </c>
       <c r="F7" t="n">
-        <v>3259</v>
+        <v>3094</v>
       </c>
       <c r="G7" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6.96</v>
+        <v>6.9</v>
       </c>
       <c r="E8" t="n">
-        <v>64744</v>
+        <v>47436</v>
       </c>
       <c r="F8" t="n">
-        <v>4491</v>
+        <v>3259</v>
       </c>
       <c r="G8" t="n">
-        <v>1.68</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6.98</v>
+        <v>6.96</v>
       </c>
       <c r="E9" t="n">
-        <v>95577</v>
+        <v>64744</v>
       </c>
       <c r="F9" t="n">
-        <v>6628</v>
+        <v>4491</v>
       </c>
       <c r="G9" t="n">
-        <v>2.49</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6.91</v>
+        <v>6.98</v>
       </c>
       <c r="E10" t="n">
-        <v>70966</v>
+        <v>95577</v>
       </c>
       <c r="F10" t="n">
-        <v>4858</v>
+        <v>6628</v>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6.81</v>
+        <v>6.91</v>
       </c>
       <c r="E11" t="n">
-        <v>53674</v>
+        <v>70966</v>
       </c>
       <c r="F11" t="n">
-        <v>3672</v>
+        <v>4858</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6.84</v>
+        <v>6.81</v>
       </c>
       <c r="E12" t="n">
-        <v>56601</v>
+        <v>53674</v>
       </c>
       <c r="F12" t="n">
-        <v>3837</v>
+        <v>3672</v>
       </c>
       <c r="G12" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6.64</v>
+        <v>6.84</v>
       </c>
       <c r="E13" t="n">
-        <v>63254</v>
+        <v>56601</v>
       </c>
       <c r="F13" t="n">
-        <v>4201</v>
+        <v>3837</v>
       </c>
       <c r="G13" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6.49</v>
+        <v>6.64</v>
       </c>
       <c r="E14" t="n">
-        <v>77120</v>
+        <v>63254</v>
       </c>
       <c r="F14" t="n">
-        <v>5120</v>
+        <v>4201</v>
       </c>
       <c r="G14" t="n">
-        <v>2.01</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6.86</v>
+        <v>6.49</v>
       </c>
       <c r="E15" t="n">
-        <v>45505</v>
+        <v>77120</v>
       </c>
       <c r="F15" t="n">
-        <v>3140</v>
+        <v>5120</v>
       </c>
       <c r="G15" t="n">
-        <v>1.18</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6.89</v>
+        <v>6.86</v>
       </c>
       <c r="E16" t="n">
-        <v>47164</v>
+        <v>45505</v>
       </c>
       <c r="F16" t="n">
-        <v>3221</v>
+        <v>3140</v>
       </c>
       <c r="G16" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6.7</v>
+        <v>6.89</v>
       </c>
       <c r="E17" t="n">
-        <v>49231</v>
+        <v>47164</v>
       </c>
       <c r="F17" t="n">
-        <v>3302</v>
+        <v>3221</v>
       </c>
       <c r="G17" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,44 +939,73 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6.71</v>
+        <v>6.7</v>
       </c>
       <c r="E18" t="n">
-        <v>53281</v>
+        <v>49231</v>
       </c>
       <c r="F18" t="n">
-        <v>3634</v>
+        <v>3302</v>
       </c>
       <c r="G18" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E19" t="n">
+        <v>53281</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3634</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>经纬辉开</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>sz300120</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>6.79</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E20" t="n">
         <v>43302</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F20" t="n">
         <v>2956</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>1.13</v>
       </c>
     </row>

--- a/gengxiang/data/sz300120.xlsx
+++ b/gengxiang/data/sz300120.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7.05</v>
+        <v>7.06</v>
       </c>
       <c r="E2" t="n">
-        <v>55764</v>
+        <v>59244</v>
       </c>
       <c r="F2" t="n">
-        <v>3930</v>
+        <v>4131</v>
       </c>
       <c r="G2" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7.07</v>
+        <v>7.05</v>
       </c>
       <c r="E3" t="n">
-        <v>92568</v>
+        <v>55764</v>
       </c>
       <c r="F3" t="n">
-        <v>6460</v>
+        <v>3930</v>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.84</v>
+        <v>7.07</v>
       </c>
       <c r="E4" t="n">
-        <v>66316</v>
+        <v>92568</v>
       </c>
       <c r="F4" t="n">
-        <v>4557</v>
+        <v>6460</v>
       </c>
       <c r="G4" t="n">
-        <v>1.61</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.82</v>
+        <v>6.84</v>
       </c>
       <c r="E5" t="n">
-        <v>82132</v>
+        <v>66316</v>
       </c>
       <c r="F5" t="n">
-        <v>5645</v>
+        <v>4557</v>
       </c>
       <c r="G5" t="n">
-        <v>2.14</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.81</v>
+        <v>6.82</v>
       </c>
       <c r="E6" t="n">
-        <v>54539</v>
+        <v>82132</v>
       </c>
       <c r="F6" t="n">
-        <v>3739</v>
+        <v>5645</v>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.89</v>
+        <v>6.81</v>
       </c>
       <c r="E7" t="n">
-        <v>44886</v>
+        <v>54539</v>
       </c>
       <c r="F7" t="n">
-        <v>3094</v>
+        <v>3739</v>
       </c>
       <c r="G7" t="n">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6.9</v>
+        <v>6.89</v>
       </c>
       <c r="E8" t="n">
-        <v>47436</v>
+        <v>44886</v>
       </c>
       <c r="F8" t="n">
-        <v>3259</v>
+        <v>3094</v>
       </c>
       <c r="G8" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6.96</v>
+        <v>6.9</v>
       </c>
       <c r="E9" t="n">
-        <v>64744</v>
+        <v>47436</v>
       </c>
       <c r="F9" t="n">
-        <v>4491</v>
+        <v>3259</v>
       </c>
       <c r="G9" t="n">
-        <v>1.68</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6.98</v>
+        <v>6.96</v>
       </c>
       <c r="E10" t="n">
-        <v>95577</v>
+        <v>64744</v>
       </c>
       <c r="F10" t="n">
-        <v>6628</v>
+        <v>4491</v>
       </c>
       <c r="G10" t="n">
-        <v>2.49</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6.91</v>
+        <v>6.98</v>
       </c>
       <c r="E11" t="n">
-        <v>70966</v>
+        <v>95577</v>
       </c>
       <c r="F11" t="n">
-        <v>4858</v>
+        <v>6628</v>
       </c>
       <c r="G11" t="n">
-        <v>1.85</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6.81</v>
+        <v>6.91</v>
       </c>
       <c r="E12" t="n">
-        <v>53674</v>
+        <v>70966</v>
       </c>
       <c r="F12" t="n">
-        <v>3672</v>
+        <v>4858</v>
       </c>
       <c r="G12" t="n">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6.84</v>
+        <v>6.81</v>
       </c>
       <c r="E13" t="n">
-        <v>56601</v>
+        <v>53674</v>
       </c>
       <c r="F13" t="n">
-        <v>3837</v>
+        <v>3672</v>
       </c>
       <c r="G13" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6.64</v>
+        <v>6.84</v>
       </c>
       <c r="E14" t="n">
-        <v>63254</v>
+        <v>56601</v>
       </c>
       <c r="F14" t="n">
-        <v>4201</v>
+        <v>3837</v>
       </c>
       <c r="G14" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6.49</v>
+        <v>6.64</v>
       </c>
       <c r="E15" t="n">
-        <v>77120</v>
+        <v>63254</v>
       </c>
       <c r="F15" t="n">
-        <v>5120</v>
+        <v>4201</v>
       </c>
       <c r="G15" t="n">
-        <v>2.01</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6.86</v>
+        <v>6.49</v>
       </c>
       <c r="E16" t="n">
-        <v>45505</v>
+        <v>77120</v>
       </c>
       <c r="F16" t="n">
-        <v>3140</v>
+        <v>5120</v>
       </c>
       <c r="G16" t="n">
-        <v>1.18</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6.89</v>
+        <v>6.86</v>
       </c>
       <c r="E17" t="n">
-        <v>47164</v>
+        <v>45505</v>
       </c>
       <c r="F17" t="n">
-        <v>3221</v>
+        <v>3140</v>
       </c>
       <c r="G17" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6.7</v>
+        <v>6.89</v>
       </c>
       <c r="E18" t="n">
-        <v>49231</v>
+        <v>47164</v>
       </c>
       <c r="F18" t="n">
-        <v>3302</v>
+        <v>3221</v>
       </c>
       <c r="G18" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,44 +968,73 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6.71</v>
+        <v>6.7</v>
       </c>
       <c r="E19" t="n">
-        <v>53281</v>
+        <v>49231</v>
       </c>
       <c r="F19" t="n">
-        <v>3634</v>
+        <v>3302</v>
       </c>
       <c r="G19" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E20" t="n">
+        <v>53281</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3634</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>经纬辉开</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>sz300120</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>经纬辉开</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>sz300120</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>6.79</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E21" t="n">
         <v>43302</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F21" t="n">
         <v>2956</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>1.13</v>
       </c>
     </row>

--- a/gengxiang/data/sz300120.xlsx
+++ b/gengxiang/data/sz300120.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7.06</v>
+        <v>7.03</v>
       </c>
       <c r="E2" t="n">
-        <v>59244</v>
+        <v>53490</v>
       </c>
       <c r="F2" t="n">
-        <v>4131</v>
+        <v>3776</v>
       </c>
       <c r="G2" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7.05</v>
+        <v>7.06</v>
       </c>
       <c r="E3" t="n">
-        <v>55764</v>
+        <v>59244</v>
       </c>
       <c r="F3" t="n">
-        <v>3930</v>
+        <v>4131</v>
       </c>
       <c r="G3" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7.07</v>
+        <v>7.05</v>
       </c>
       <c r="E4" t="n">
-        <v>92568</v>
+        <v>55764</v>
       </c>
       <c r="F4" t="n">
-        <v>6460</v>
+        <v>3930</v>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.84</v>
+        <v>7.07</v>
       </c>
       <c r="E5" t="n">
-        <v>66316</v>
+        <v>92568</v>
       </c>
       <c r="F5" t="n">
-        <v>4557</v>
+        <v>6460</v>
       </c>
       <c r="G5" t="n">
-        <v>1.61</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.82</v>
+        <v>6.84</v>
       </c>
       <c r="E6" t="n">
-        <v>82132</v>
+        <v>66316</v>
       </c>
       <c r="F6" t="n">
-        <v>5645</v>
+        <v>4557</v>
       </c>
       <c r="G6" t="n">
-        <v>2.14</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.81</v>
+        <v>6.82</v>
       </c>
       <c r="E7" t="n">
-        <v>54539</v>
+        <v>82132</v>
       </c>
       <c r="F7" t="n">
-        <v>3739</v>
+        <v>5645</v>
       </c>
       <c r="G7" t="n">
-        <v>1.42</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6.89</v>
+        <v>6.81</v>
       </c>
       <c r="E8" t="n">
-        <v>44886</v>
+        <v>54539</v>
       </c>
       <c r="F8" t="n">
-        <v>3094</v>
+        <v>3739</v>
       </c>
       <c r="G8" t="n">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6.9</v>
+        <v>6.89</v>
       </c>
       <c r="E9" t="n">
-        <v>47436</v>
+        <v>44886</v>
       </c>
       <c r="F9" t="n">
-        <v>3259</v>
+        <v>3094</v>
       </c>
       <c r="G9" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6.96</v>
+        <v>6.9</v>
       </c>
       <c r="E10" t="n">
-        <v>64744</v>
+        <v>47436</v>
       </c>
       <c r="F10" t="n">
-        <v>4491</v>
+        <v>3259</v>
       </c>
       <c r="G10" t="n">
-        <v>1.68</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6.98</v>
+        <v>6.96</v>
       </c>
       <c r="E11" t="n">
-        <v>95577</v>
+        <v>64744</v>
       </c>
       <c r="F11" t="n">
-        <v>6628</v>
+        <v>4491</v>
       </c>
       <c r="G11" t="n">
-        <v>2.49</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6.91</v>
+        <v>6.98</v>
       </c>
       <c r="E12" t="n">
-        <v>70966</v>
+        <v>95577</v>
       </c>
       <c r="F12" t="n">
-        <v>4858</v>
+        <v>6628</v>
       </c>
       <c r="G12" t="n">
-        <v>1.85</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6.81</v>
+        <v>6.91</v>
       </c>
       <c r="E13" t="n">
-        <v>53674</v>
+        <v>70966</v>
       </c>
       <c r="F13" t="n">
-        <v>3672</v>
+        <v>4858</v>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6.84</v>
+        <v>6.81</v>
       </c>
       <c r="E14" t="n">
-        <v>56601</v>
+        <v>53674</v>
       </c>
       <c r="F14" t="n">
-        <v>3837</v>
+        <v>3672</v>
       </c>
       <c r="G14" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6.64</v>
+        <v>6.84</v>
       </c>
       <c r="E15" t="n">
-        <v>63254</v>
+        <v>56601</v>
       </c>
       <c r="F15" t="n">
-        <v>4201</v>
+        <v>3837</v>
       </c>
       <c r="G15" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6.49</v>
+        <v>6.64</v>
       </c>
       <c r="E16" t="n">
-        <v>77120</v>
+        <v>63254</v>
       </c>
       <c r="F16" t="n">
-        <v>5120</v>
+        <v>4201</v>
       </c>
       <c r="G16" t="n">
-        <v>2.01</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6.86</v>
+        <v>6.49</v>
       </c>
       <c r="E17" t="n">
-        <v>45505</v>
+        <v>77120</v>
       </c>
       <c r="F17" t="n">
-        <v>3140</v>
+        <v>5120</v>
       </c>
       <c r="G17" t="n">
-        <v>1.18</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6.89</v>
+        <v>6.86</v>
       </c>
       <c r="E18" t="n">
-        <v>47164</v>
+        <v>45505</v>
       </c>
       <c r="F18" t="n">
-        <v>3221</v>
+        <v>3140</v>
       </c>
       <c r="G18" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6.7</v>
+        <v>6.89</v>
       </c>
       <c r="E19" t="n">
-        <v>49231</v>
+        <v>47164</v>
       </c>
       <c r="F19" t="n">
-        <v>3302</v>
+        <v>3221</v>
       </c>
       <c r="G19" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6.71</v>
+        <v>6.7</v>
       </c>
       <c r="E20" t="n">
-        <v>53281</v>
+        <v>49231</v>
       </c>
       <c r="F20" t="n">
-        <v>3634</v>
+        <v>3302</v>
       </c>
       <c r="G20" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2022-10-24</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6.79</v>
+        <v>6.71</v>
       </c>
       <c r="E21" t="n">
-        <v>43302</v>
+        <v>53281</v>
       </c>
       <c r="F21" t="n">
-        <v>2956</v>
+        <v>3634</v>
       </c>
       <c r="G21" t="n">
-        <v>1.13</v>
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sz300120.xlsx
+++ b/gengxiang/data/sz300120.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7.03</v>
+        <v>6.99</v>
       </c>
       <c r="E2" t="n">
-        <v>53490</v>
+        <v>56082</v>
       </c>
       <c r="F2" t="n">
-        <v>3776</v>
+        <v>3886</v>
       </c>
       <c r="G2" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7.06</v>
+        <v>7.03</v>
       </c>
       <c r="E3" t="n">
-        <v>59244</v>
+        <v>53490</v>
       </c>
       <c r="F3" t="n">
-        <v>4131</v>
+        <v>3776</v>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7.05</v>
+        <v>7.06</v>
       </c>
       <c r="E4" t="n">
-        <v>55764</v>
+        <v>59244</v>
       </c>
       <c r="F4" t="n">
-        <v>3930</v>
+        <v>4131</v>
       </c>
       <c r="G4" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7.07</v>
+        <v>7.05</v>
       </c>
       <c r="E5" t="n">
-        <v>92568</v>
+        <v>55764</v>
       </c>
       <c r="F5" t="n">
-        <v>6460</v>
+        <v>3930</v>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.84</v>
+        <v>7.07</v>
       </c>
       <c r="E6" t="n">
-        <v>66316</v>
+        <v>92568</v>
       </c>
       <c r="F6" t="n">
-        <v>4557</v>
+        <v>6460</v>
       </c>
       <c r="G6" t="n">
-        <v>1.61</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.82</v>
+        <v>6.84</v>
       </c>
       <c r="E7" t="n">
-        <v>82132</v>
+        <v>66316</v>
       </c>
       <c r="F7" t="n">
-        <v>5645</v>
+        <v>4557</v>
       </c>
       <c r="G7" t="n">
-        <v>2.14</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6.81</v>
+        <v>6.82</v>
       </c>
       <c r="E8" t="n">
-        <v>54539</v>
+        <v>82132</v>
       </c>
       <c r="F8" t="n">
-        <v>3739</v>
+        <v>5645</v>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6.89</v>
+        <v>6.81</v>
       </c>
       <c r="E9" t="n">
-        <v>44886</v>
+        <v>54539</v>
       </c>
       <c r="F9" t="n">
-        <v>3094</v>
+        <v>3739</v>
       </c>
       <c r="G9" t="n">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6.9</v>
+        <v>6.89</v>
       </c>
       <c r="E10" t="n">
-        <v>47436</v>
+        <v>44886</v>
       </c>
       <c r="F10" t="n">
-        <v>3259</v>
+        <v>3094</v>
       </c>
       <c r="G10" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6.96</v>
+        <v>6.9</v>
       </c>
       <c r="E11" t="n">
-        <v>64744</v>
+        <v>47436</v>
       </c>
       <c r="F11" t="n">
-        <v>4491</v>
+        <v>3259</v>
       </c>
       <c r="G11" t="n">
-        <v>1.68</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6.98</v>
+        <v>6.96</v>
       </c>
       <c r="E12" t="n">
-        <v>95577</v>
+        <v>64744</v>
       </c>
       <c r="F12" t="n">
-        <v>6628</v>
+        <v>4491</v>
       </c>
       <c r="G12" t="n">
-        <v>2.49</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6.91</v>
+        <v>6.98</v>
       </c>
       <c r="E13" t="n">
-        <v>70966</v>
+        <v>95577</v>
       </c>
       <c r="F13" t="n">
-        <v>4858</v>
+        <v>6628</v>
       </c>
       <c r="G13" t="n">
-        <v>1.85</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6.81</v>
+        <v>6.91</v>
       </c>
       <c r="E14" t="n">
-        <v>53674</v>
+        <v>70966</v>
       </c>
       <c r="F14" t="n">
-        <v>3672</v>
+        <v>4858</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6.84</v>
+        <v>6.81</v>
       </c>
       <c r="E15" t="n">
-        <v>56601</v>
+        <v>53674</v>
       </c>
       <c r="F15" t="n">
-        <v>3837</v>
+        <v>3672</v>
       </c>
       <c r="G15" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6.64</v>
+        <v>6.84</v>
       </c>
       <c r="E16" t="n">
-        <v>63254</v>
+        <v>56601</v>
       </c>
       <c r="F16" t="n">
-        <v>4201</v>
+        <v>3837</v>
       </c>
       <c r="G16" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6.49</v>
+        <v>6.64</v>
       </c>
       <c r="E17" t="n">
-        <v>77120</v>
+        <v>63254</v>
       </c>
       <c r="F17" t="n">
-        <v>5120</v>
+        <v>4201</v>
       </c>
       <c r="G17" t="n">
-        <v>2.01</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6.86</v>
+        <v>6.49</v>
       </c>
       <c r="E18" t="n">
-        <v>45505</v>
+        <v>77120</v>
       </c>
       <c r="F18" t="n">
-        <v>3140</v>
+        <v>5120</v>
       </c>
       <c r="G18" t="n">
-        <v>1.18</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6.89</v>
+        <v>6.86</v>
       </c>
       <c r="E19" t="n">
-        <v>47164</v>
+        <v>45505</v>
       </c>
       <c r="F19" t="n">
-        <v>3221</v>
+        <v>3140</v>
       </c>
       <c r="G19" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6.7</v>
+        <v>6.89</v>
       </c>
       <c r="E20" t="n">
-        <v>49231</v>
+        <v>47164</v>
       </c>
       <c r="F20" t="n">
-        <v>3302</v>
+        <v>3221</v>
       </c>
       <c r="G20" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6.71</v>
+        <v>6.7</v>
       </c>
       <c r="E21" t="n">
-        <v>53281</v>
+        <v>49231</v>
       </c>
       <c r="F21" t="n">
-        <v>3634</v>
+        <v>3302</v>
       </c>
       <c r="G21" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sz300120.xlsx
+++ b/gengxiang/data/sz300120.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.99</v>
+        <v>6.5</v>
       </c>
       <c r="E2" t="n">
-        <v>56082</v>
+        <v>28257</v>
       </c>
       <c r="F2" t="n">
-        <v>3886</v>
+        <v>1824</v>
       </c>
       <c r="G2" t="n">
-        <v>1.36</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7.03</v>
+        <v>6.39</v>
       </c>
       <c r="E3" t="n">
-        <v>53490</v>
+        <v>69608</v>
       </c>
       <c r="F3" t="n">
-        <v>3776</v>
+        <v>4460</v>
       </c>
       <c r="G3" t="n">
-        <v>1.3</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7.06</v>
+        <v>6.99</v>
       </c>
       <c r="E4" t="n">
-        <v>59244</v>
+        <v>56082</v>
       </c>
       <c r="F4" t="n">
-        <v>4131</v>
+        <v>3886</v>
       </c>
       <c r="G4" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7.05</v>
+        <v>7.03</v>
       </c>
       <c r="E5" t="n">
-        <v>55764</v>
+        <v>53490</v>
       </c>
       <c r="F5" t="n">
-        <v>3930</v>
+        <v>3776</v>
       </c>
       <c r="G5" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7.07</v>
+        <v>7.06</v>
       </c>
       <c r="E6" t="n">
-        <v>92568</v>
+        <v>59244</v>
       </c>
       <c r="F6" t="n">
-        <v>6460</v>
+        <v>4131</v>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.84</v>
+        <v>7.05</v>
       </c>
       <c r="E7" t="n">
-        <v>66316</v>
+        <v>55764</v>
       </c>
       <c r="F7" t="n">
-        <v>4557</v>
+        <v>3930</v>
       </c>
       <c r="G7" t="n">
-        <v>1.61</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6.82</v>
+        <v>7.07</v>
       </c>
       <c r="E8" t="n">
-        <v>82132</v>
+        <v>92568</v>
       </c>
       <c r="F8" t="n">
-        <v>5645</v>
+        <v>6460</v>
       </c>
       <c r="G8" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6.81</v>
+        <v>6.84</v>
       </c>
       <c r="E9" t="n">
-        <v>54539</v>
+        <v>66316</v>
       </c>
       <c r="F9" t="n">
-        <v>3739</v>
+        <v>4557</v>
       </c>
       <c r="G9" t="n">
-        <v>1.42</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6.89</v>
+        <v>6.82</v>
       </c>
       <c r="E10" t="n">
-        <v>44886</v>
+        <v>82132</v>
       </c>
       <c r="F10" t="n">
-        <v>3094</v>
+        <v>5645</v>
       </c>
       <c r="G10" t="n">
-        <v>1.17</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6.9</v>
+        <v>6.81</v>
       </c>
       <c r="E11" t="n">
-        <v>47436</v>
+        <v>54539</v>
       </c>
       <c r="F11" t="n">
-        <v>3259</v>
+        <v>3739</v>
       </c>
       <c r="G11" t="n">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6.96</v>
+        <v>6.89</v>
       </c>
       <c r="E12" t="n">
-        <v>64744</v>
+        <v>44886</v>
       </c>
       <c r="F12" t="n">
-        <v>4491</v>
+        <v>3094</v>
       </c>
       <c r="G12" t="n">
-        <v>1.68</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6.98</v>
+        <v>6.9</v>
       </c>
       <c r="E13" t="n">
-        <v>95577</v>
+        <v>47436</v>
       </c>
       <c r="F13" t="n">
-        <v>6628</v>
+        <v>3259</v>
       </c>
       <c r="G13" t="n">
-        <v>2.49</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6.91</v>
+        <v>6.96</v>
       </c>
       <c r="E14" t="n">
-        <v>70966</v>
+        <v>64744</v>
       </c>
       <c r="F14" t="n">
-        <v>4858</v>
+        <v>4491</v>
       </c>
       <c r="G14" t="n">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6.81</v>
+        <v>6.98</v>
       </c>
       <c r="E15" t="n">
-        <v>53674</v>
+        <v>95577</v>
       </c>
       <c r="F15" t="n">
-        <v>3672</v>
+        <v>6628</v>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6.84</v>
+        <v>6.91</v>
       </c>
       <c r="E16" t="n">
-        <v>56601</v>
+        <v>70966</v>
       </c>
       <c r="F16" t="n">
-        <v>3837</v>
+        <v>4858</v>
       </c>
       <c r="G16" t="n">
-        <v>1.47</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6.64</v>
+        <v>6.81</v>
       </c>
       <c r="E17" t="n">
-        <v>63254</v>
+        <v>53674</v>
       </c>
       <c r="F17" t="n">
-        <v>4201</v>
+        <v>3672</v>
       </c>
       <c r="G17" t="n">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6.49</v>
+        <v>6.84</v>
       </c>
       <c r="E18" t="n">
-        <v>77120</v>
+        <v>56601</v>
       </c>
       <c r="F18" t="n">
-        <v>5120</v>
+        <v>3837</v>
       </c>
       <c r="G18" t="n">
-        <v>2.01</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6.86</v>
+        <v>6.64</v>
       </c>
       <c r="E19" t="n">
-        <v>45505</v>
+        <v>63254</v>
       </c>
       <c r="F19" t="n">
-        <v>3140</v>
+        <v>4201</v>
       </c>
       <c r="G19" t="n">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6.89</v>
+        <v>6.49</v>
       </c>
       <c r="E20" t="n">
-        <v>47164</v>
+        <v>77120</v>
       </c>
       <c r="F20" t="n">
-        <v>3221</v>
+        <v>5120</v>
       </c>
       <c r="G20" t="n">
-        <v>1.23</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6.7</v>
+        <v>6.86</v>
       </c>
       <c r="E21" t="n">
-        <v>49231</v>
+        <v>45505</v>
       </c>
       <c r="F21" t="n">
-        <v>3302</v>
+        <v>3140</v>
       </c>
       <c r="G21" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sz300120.xlsx
+++ b/gengxiang/data/sz300120.xlsx
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.5</v>
+        <v>6.53</v>
       </c>
       <c r="E2" t="n">
-        <v>28257</v>
+        <v>52628</v>
       </c>
       <c r="F2" t="n">
-        <v>1824</v>
+        <v>3414</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="3">

--- a/gengxiang/data/sz300120.xlsx
+++ b/gengxiang/data/sz300120.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.53</v>
+        <v>6.52</v>
       </c>
       <c r="E2" t="n">
-        <v>52628</v>
+        <v>41836</v>
       </c>
       <c r="F2" t="n">
-        <v>3414</v>
+        <v>2738</v>
       </c>
       <c r="G2" t="n">
-        <v>1.28</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.39</v>
+        <v>6.47</v>
       </c>
       <c r="E3" t="n">
-        <v>69608</v>
+        <v>41866</v>
       </c>
       <c r="F3" t="n">
-        <v>4460</v>
+        <v>2721</v>
       </c>
       <c r="G3" t="n">
-        <v>1.69</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.99</v>
+        <v>6.53</v>
       </c>
       <c r="E4" t="n">
-        <v>56082</v>
+        <v>52628</v>
       </c>
       <c r="F4" t="n">
-        <v>3886</v>
+        <v>3414</v>
       </c>
       <c r="G4" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7.03</v>
+        <v>6.39</v>
       </c>
       <c r="E5" t="n">
-        <v>53490</v>
+        <v>69608</v>
       </c>
       <c r="F5" t="n">
-        <v>3776</v>
+        <v>4460</v>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7.06</v>
+        <v>6.99</v>
       </c>
       <c r="E6" t="n">
-        <v>59244</v>
+        <v>56082</v>
       </c>
       <c r="F6" t="n">
-        <v>4131</v>
+        <v>3886</v>
       </c>
       <c r="G6" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7.05</v>
+        <v>7.03</v>
       </c>
       <c r="E7" t="n">
-        <v>55764</v>
+        <v>53490</v>
       </c>
       <c r="F7" t="n">
-        <v>3930</v>
+        <v>3776</v>
       </c>
       <c r="G7" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7.07</v>
+        <v>7.06</v>
       </c>
       <c r="E8" t="n">
-        <v>92568</v>
+        <v>59244</v>
       </c>
       <c r="F8" t="n">
-        <v>6460</v>
+        <v>4131</v>
       </c>
       <c r="G8" t="n">
-        <v>2.25</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6.84</v>
+        <v>7.05</v>
       </c>
       <c r="E9" t="n">
-        <v>66316</v>
+        <v>55764</v>
       </c>
       <c r="F9" t="n">
-        <v>4557</v>
+        <v>3930</v>
       </c>
       <c r="G9" t="n">
-        <v>1.61</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6.82</v>
+        <v>7.07</v>
       </c>
       <c r="E10" t="n">
-        <v>82132</v>
+        <v>92568</v>
       </c>
       <c r="F10" t="n">
-        <v>5645</v>
+        <v>6460</v>
       </c>
       <c r="G10" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6.81</v>
+        <v>6.84</v>
       </c>
       <c r="E11" t="n">
-        <v>54539</v>
+        <v>66316</v>
       </c>
       <c r="F11" t="n">
-        <v>3739</v>
+        <v>4557</v>
       </c>
       <c r="G11" t="n">
-        <v>1.42</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6.89</v>
+        <v>6.82</v>
       </c>
       <c r="E12" t="n">
-        <v>44886</v>
+        <v>82132</v>
       </c>
       <c r="F12" t="n">
-        <v>3094</v>
+        <v>5645</v>
       </c>
       <c r="G12" t="n">
-        <v>1.17</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6.9</v>
+        <v>6.81</v>
       </c>
       <c r="E13" t="n">
-        <v>47436</v>
+        <v>54539</v>
       </c>
       <c r="F13" t="n">
-        <v>3259</v>
+        <v>3739</v>
       </c>
       <c r="G13" t="n">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6.96</v>
+        <v>6.89</v>
       </c>
       <c r="E14" t="n">
-        <v>64744</v>
+        <v>44886</v>
       </c>
       <c r="F14" t="n">
-        <v>4491</v>
+        <v>3094</v>
       </c>
       <c r="G14" t="n">
-        <v>1.68</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6.98</v>
+        <v>6.9</v>
       </c>
       <c r="E15" t="n">
-        <v>95577</v>
+        <v>47436</v>
       </c>
       <c r="F15" t="n">
-        <v>6628</v>
+        <v>3259</v>
       </c>
       <c r="G15" t="n">
-        <v>2.49</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6.91</v>
+        <v>6.96</v>
       </c>
       <c r="E16" t="n">
-        <v>70966</v>
+        <v>64744</v>
       </c>
       <c r="F16" t="n">
-        <v>4858</v>
+        <v>4491</v>
       </c>
       <c r="G16" t="n">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6.81</v>
+        <v>6.98</v>
       </c>
       <c r="E17" t="n">
-        <v>53674</v>
+        <v>95577</v>
       </c>
       <c r="F17" t="n">
-        <v>3672</v>
+        <v>6628</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6.84</v>
+        <v>6.91</v>
       </c>
       <c r="E18" t="n">
-        <v>56601</v>
+        <v>70966</v>
       </c>
       <c r="F18" t="n">
-        <v>3837</v>
+        <v>4858</v>
       </c>
       <c r="G18" t="n">
-        <v>1.47</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6.64</v>
+        <v>6.81</v>
       </c>
       <c r="E19" t="n">
-        <v>63254</v>
+        <v>53674</v>
       </c>
       <c r="F19" t="n">
-        <v>4201</v>
+        <v>3672</v>
       </c>
       <c r="G19" t="n">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6.49</v>
+        <v>6.84</v>
       </c>
       <c r="E20" t="n">
-        <v>77120</v>
+        <v>56601</v>
       </c>
       <c r="F20" t="n">
-        <v>5120</v>
+        <v>3837</v>
       </c>
       <c r="G20" t="n">
-        <v>2.01</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6.86</v>
+        <v>6.64</v>
       </c>
       <c r="E21" t="n">
-        <v>45505</v>
+        <v>63254</v>
       </c>
       <c r="F21" t="n">
-        <v>3140</v>
+        <v>4201</v>
       </c>
       <c r="G21" t="n">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sz300120.xlsx
+++ b/gengxiang/data/sz300120.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.53</v>
+        <v>6.47</v>
       </c>
       <c r="E2" t="n">
-        <v>52628</v>
+        <v>41866</v>
       </c>
       <c r="F2" t="n">
-        <v>3414</v>
+        <v>2721</v>
       </c>
       <c r="G2" t="n">
-        <v>1.28</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.39</v>
+        <v>6.53</v>
       </c>
       <c r="E3" t="n">
-        <v>69608</v>
+        <v>52628</v>
       </c>
       <c r="F3" t="n">
-        <v>4460</v>
+        <v>3414</v>
       </c>
       <c r="G3" t="n">
-        <v>1.69</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.99</v>
+        <v>6.39</v>
       </c>
       <c r="E4" t="n">
-        <v>56082</v>
+        <v>69608</v>
       </c>
       <c r="F4" t="n">
-        <v>3886</v>
+        <v>4460</v>
       </c>
       <c r="G4" t="n">
-        <v>1.36</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7.03</v>
+        <v>6.99</v>
       </c>
       <c r="E5" t="n">
-        <v>53490</v>
+        <v>56082</v>
       </c>
       <c r="F5" t="n">
-        <v>3776</v>
+        <v>3886</v>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7.06</v>
+        <v>7.03</v>
       </c>
       <c r="E6" t="n">
-        <v>59244</v>
+        <v>53490</v>
       </c>
       <c r="F6" t="n">
-        <v>4131</v>
+        <v>3776</v>
       </c>
       <c r="G6" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7.05</v>
+        <v>7.06</v>
       </c>
       <c r="E7" t="n">
-        <v>55764</v>
+        <v>59244</v>
       </c>
       <c r="F7" t="n">
-        <v>3930</v>
+        <v>4131</v>
       </c>
       <c r="G7" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7.07</v>
+        <v>7.05</v>
       </c>
       <c r="E8" t="n">
-        <v>92568</v>
+        <v>55764</v>
       </c>
       <c r="F8" t="n">
-        <v>6460</v>
+        <v>3930</v>
       </c>
       <c r="G8" t="n">
-        <v>2.25</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6.84</v>
+        <v>7.07</v>
       </c>
       <c r="E9" t="n">
-        <v>66316</v>
+        <v>92568</v>
       </c>
       <c r="F9" t="n">
-        <v>4557</v>
+        <v>6460</v>
       </c>
       <c r="G9" t="n">
-        <v>1.61</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6.82</v>
+        <v>6.84</v>
       </c>
       <c r="E10" t="n">
-        <v>82132</v>
+        <v>66316</v>
       </c>
       <c r="F10" t="n">
-        <v>5645</v>
+        <v>4557</v>
       </c>
       <c r="G10" t="n">
-        <v>2.14</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6.81</v>
+        <v>6.82</v>
       </c>
       <c r="E11" t="n">
-        <v>54539</v>
+        <v>82132</v>
       </c>
       <c r="F11" t="n">
-        <v>3739</v>
+        <v>5645</v>
       </c>
       <c r="G11" t="n">
-        <v>1.42</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6.89</v>
+        <v>6.81</v>
       </c>
       <c r="E12" t="n">
-        <v>44886</v>
+        <v>54539</v>
       </c>
       <c r="F12" t="n">
-        <v>3094</v>
+        <v>3739</v>
       </c>
       <c r="G12" t="n">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6.9</v>
+        <v>6.89</v>
       </c>
       <c r="E13" t="n">
-        <v>47436</v>
+        <v>44886</v>
       </c>
       <c r="F13" t="n">
-        <v>3259</v>
+        <v>3094</v>
       </c>
       <c r="G13" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6.96</v>
+        <v>6.9</v>
       </c>
       <c r="E14" t="n">
-        <v>64744</v>
+        <v>47436</v>
       </c>
       <c r="F14" t="n">
-        <v>4491</v>
+        <v>3259</v>
       </c>
       <c r="G14" t="n">
-        <v>1.68</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6.98</v>
+        <v>6.96</v>
       </c>
       <c r="E15" t="n">
-        <v>95577</v>
+        <v>64744</v>
       </c>
       <c r="F15" t="n">
-        <v>6628</v>
+        <v>4491</v>
       </c>
       <c r="G15" t="n">
-        <v>2.49</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6.91</v>
+        <v>6.98</v>
       </c>
       <c r="E16" t="n">
-        <v>70966</v>
+        <v>95577</v>
       </c>
       <c r="F16" t="n">
-        <v>4858</v>
+        <v>6628</v>
       </c>
       <c r="G16" t="n">
-        <v>1.85</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6.81</v>
+        <v>6.91</v>
       </c>
       <c r="E17" t="n">
-        <v>53674</v>
+        <v>70966</v>
       </c>
       <c r="F17" t="n">
-        <v>3672</v>
+        <v>4858</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6.84</v>
+        <v>6.81</v>
       </c>
       <c r="E18" t="n">
-        <v>56601</v>
+        <v>53674</v>
       </c>
       <c r="F18" t="n">
-        <v>3837</v>
+        <v>3672</v>
       </c>
       <c r="G18" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6.64</v>
+        <v>6.84</v>
       </c>
       <c r="E19" t="n">
-        <v>63254</v>
+        <v>56601</v>
       </c>
       <c r="F19" t="n">
-        <v>4201</v>
+        <v>3837</v>
       </c>
       <c r="G19" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6.49</v>
+        <v>6.64</v>
       </c>
       <c r="E20" t="n">
-        <v>77120</v>
+        <v>63254</v>
       </c>
       <c r="F20" t="n">
-        <v>5120</v>
+        <v>4201</v>
       </c>
       <c r="G20" t="n">
-        <v>2.01</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6.86</v>
+        <v>6.49</v>
       </c>
       <c r="E21" t="n">
-        <v>45505</v>
+        <v>77120</v>
       </c>
       <c r="F21" t="n">
-        <v>3140</v>
+        <v>5120</v>
       </c>
       <c r="G21" t="n">
-        <v>1.18</v>
+        <v>2.01</v>
       </c>
     </row>
   </sheetData>

--- a/gengxiang/data/sz300120.xlsx
+++ b/gengxiang/data/sz300120.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -475,22 +475,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6.52</v>
+        <v>6.58</v>
       </c>
       <c r="E2" t="n">
-        <v>41836</v>
+        <v>48732</v>
       </c>
       <c r="F2" t="n">
-        <v>2738</v>
+        <v>3199</v>
       </c>
       <c r="G2" t="n">
-        <v>1.02</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.47</v>
+        <v>6.52</v>
       </c>
       <c r="E3" t="n">
-        <v>41866</v>
+        <v>41836</v>
       </c>
       <c r="F3" t="n">
-        <v>2721</v>
+        <v>2738</v>
       </c>
       <c r="G3" t="n">
         <v>1.02</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.53</v>
+        <v>6.47</v>
       </c>
       <c r="E4" t="n">
-        <v>52628</v>
+        <v>41866</v>
       </c>
       <c r="F4" t="n">
-        <v>3414</v>
+        <v>2721</v>
       </c>
       <c r="G4" t="n">
-        <v>1.28</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.39</v>
+        <v>6.53</v>
       </c>
       <c r="E5" t="n">
-        <v>69608</v>
+        <v>52628</v>
       </c>
       <c r="F5" t="n">
-        <v>4460</v>
+        <v>3414</v>
       </c>
       <c r="G5" t="n">
-        <v>1.69</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.99</v>
+        <v>6.39</v>
       </c>
       <c r="E6" t="n">
-        <v>56082</v>
+        <v>69608</v>
       </c>
       <c r="F6" t="n">
-        <v>3886</v>
+        <v>4460</v>
       </c>
       <c r="G6" t="n">
-        <v>1.36</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7.03</v>
+        <v>6.99</v>
       </c>
       <c r="E7" t="n">
-        <v>53490</v>
+        <v>56082</v>
       </c>
       <c r="F7" t="n">
-        <v>3776</v>
+        <v>3886</v>
       </c>
       <c r="G7" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -649,22 +649,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7.06</v>
+        <v>7.03</v>
       </c>
       <c r="E8" t="n">
-        <v>59244</v>
+        <v>53490</v>
       </c>
       <c r="F8" t="n">
-        <v>4131</v>
+        <v>3776</v>
       </c>
       <c r="G8" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -678,22 +678,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7.05</v>
+        <v>7.06</v>
       </c>
       <c r="E9" t="n">
-        <v>55764</v>
+        <v>59244</v>
       </c>
       <c r="F9" t="n">
-        <v>3930</v>
+        <v>4131</v>
       </c>
       <c r="G9" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7.07</v>
+        <v>7.05</v>
       </c>
       <c r="E10" t="n">
-        <v>92568</v>
+        <v>55764</v>
       </c>
       <c r="F10" t="n">
-        <v>6460</v>
+        <v>3930</v>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6.84</v>
+        <v>7.07</v>
       </c>
       <c r="E11" t="n">
-        <v>66316</v>
+        <v>92568</v>
       </c>
       <c r="F11" t="n">
-        <v>4557</v>
+        <v>6460</v>
       </c>
       <c r="G11" t="n">
-        <v>1.61</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6.82</v>
+        <v>6.84</v>
       </c>
       <c r="E12" t="n">
-        <v>82132</v>
+        <v>66316</v>
       </c>
       <c r="F12" t="n">
-        <v>5645</v>
+        <v>4557</v>
       </c>
       <c r="G12" t="n">
-        <v>2.14</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -794,22 +794,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6.81</v>
+        <v>6.82</v>
       </c>
       <c r="E13" t="n">
-        <v>54539</v>
+        <v>82132</v>
       </c>
       <c r="F13" t="n">
-        <v>3739</v>
+        <v>5645</v>
       </c>
       <c r="G13" t="n">
-        <v>1.42</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6.89</v>
+        <v>6.81</v>
       </c>
       <c r="E14" t="n">
-        <v>44886</v>
+        <v>54539</v>
       </c>
       <c r="F14" t="n">
-        <v>3094</v>
+        <v>3739</v>
       </c>
       <c r="G14" t="n">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6.9</v>
+        <v>6.89</v>
       </c>
       <c r="E15" t="n">
-        <v>47436</v>
+        <v>44886</v>
       </c>
       <c r="F15" t="n">
-        <v>3259</v>
+        <v>3094</v>
       </c>
       <c r="G15" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6.96</v>
+        <v>6.9</v>
       </c>
       <c r="E16" t="n">
-        <v>64744</v>
+        <v>47436</v>
       </c>
       <c r="F16" t="n">
-        <v>4491</v>
+        <v>3259</v>
       </c>
       <c r="G16" t="n">
-        <v>1.68</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6.98</v>
+        <v>6.96</v>
       </c>
       <c r="E17" t="n">
-        <v>95577</v>
+        <v>64744</v>
       </c>
       <c r="F17" t="n">
-        <v>6628</v>
+        <v>4491</v>
       </c>
       <c r="G17" t="n">
-        <v>2.49</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6.91</v>
+        <v>6.98</v>
       </c>
       <c r="E18" t="n">
-        <v>70966</v>
+        <v>95577</v>
       </c>
       <c r="F18" t="n">
-        <v>4858</v>
+        <v>6628</v>
       </c>
       <c r="G18" t="n">
-        <v>1.85</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6.81</v>
+        <v>6.91</v>
       </c>
       <c r="E19" t="n">
-        <v>53674</v>
+        <v>70966</v>
       </c>
       <c r="F19" t="n">
-        <v>3672</v>
+        <v>4858</v>
       </c>
       <c r="G19" t="n">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6.84</v>
+        <v>6.81</v>
       </c>
       <c r="E20" t="n">
-        <v>56601</v>
+        <v>53674</v>
       </c>
       <c r="F20" t="n">
-        <v>3837</v>
+        <v>3672</v>
       </c>
       <c r="G20" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6.64</v>
+        <v>6.84</v>
       </c>
       <c r="E21" t="n">
-        <v>63254</v>
+        <v>56601</v>
       </c>
       <c r="F21" t="n">
-        <v>4201</v>
+        <v>3837</v>
       </c>
       <c r="G21" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>
